--- a/numberSheet/rand2.xlsx
+++ b/numberSheet/rand2.xlsx
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
